--- a/eclipse-workspace/MySeleniumPractice/src/main/java/com/DataDrivenFramework/GuruLoginTestData.xlsx
+++ b/eclipse-workspace/MySeleniumPractice/src/main/java/com/DataDrivenFramework/GuruLoginTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bubby\eclipse-workspace\MySeleniumPractice\src\main\java\com\testng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bubby\eclipse-workspace\MySeleniumPractice\src\main\java\com\DataDrivenFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8939C715-85AF-4522-B3D4-83D207365F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F80A1BD-A7B9-47C7-A902-87555159BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Rani</t>
+  </si>
+  <si>
+    <t>Login Successful</t>
+  </si>
+  <si>
+    <t>Invalid LoginId</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>Invalid LoginId or Password</t>
+  </si>
+  <si>
+    <t>ExpectedOutput</t>
   </si>
 </sst>
 </file>
@@ -367,55 +382,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
